--- a/Relatorio_anuncios_patrocinados_mes_total_SP.xlsx
+++ b/Relatorio_anuncios_patrocinados_mes_total_SP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/08efa3ad722ed28c/Aplicativos/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3964D08E-4BBE-481E-965C-28ABA797A957}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{EA136BAD-938B-4B96-9141-30D083CC6DAD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="359" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="111">
   <si>
     <t>Desde</t>
   </si>
@@ -244,7 +244,7 @@
   </si>
   <si>
     <r>
-      <t>Relatório de publicidade por anúncios patrocinados gerados em 25-jul-2025</t>
+      <t>Relatório de publicidade por anúncios patrocinados gerados em 28-jul-2025</t>
     </r>
     <r>
       <rPr>
@@ -254,7 +254,7 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-01 julho 2025 - 24 julho 2025</t>
+01 julho 2025 - 27 julho 2025</t>
     </r>
   </si>
   <si>
@@ -267,14 +267,14 @@
         <rFont val="Proxima Nova"/>
       </rPr>
       <t xml:space="preserve"> 
-(Os valores das métricas correspondem a: 01 julho 2025 - 24 julho 2025)</t>
+(Os valores das métricas correspondem a: 01 julho 2025 - 27 julho 2025)</t>
     </r>
   </si>
   <si>
     <t>01-jul-2025</t>
   </si>
   <si>
-    <t>24-jul-2025</t>
+    <t>27-jul-2025</t>
   </si>
   <si>
     <t>Ads 1kg nosso mel</t>
@@ -512,6 +512,12 @@
   </si>
   <si>
     <t>whey zero</t>
+  </si>
+  <si>
+    <t>Barra Proteica Snack Pinati Slim Whey Churros 35g-cx C/16</t>
+  </si>
+  <si>
+    <t>MLB4104691649</t>
   </si>
   <si>
     <t>Barra Slim Whey Beijinho Sem Açúcar 35g Com 16 Un Pinati</t>
@@ -937,7 +943,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="2" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="D11" sqref="D11"/>
+      <selection pane="bottomLeft" activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="10.109375" defaultRowHeight="15" customHeight="1"/>
@@ -1067,46 +1073,46 @@
         <v>27</v>
       </c>
       <c r="G3" s="9">
-        <v>330915</v>
+        <v>365953</v>
       </c>
       <c r="H3" s="9">
-        <v>1707</v>
+        <v>1903</v>
       </c>
       <c r="I3" s="9">
-        <v>1.1399999999999999</v>
+        <v>1.1200000000000001</v>
       </c>
       <c r="J3" s="9">
         <v>0.52</v>
       </c>
       <c r="K3" s="9">
-        <v>17.690000000000001</v>
+        <v>17.71</v>
       </c>
       <c r="L3" s="9">
-        <v>12922.888671875</v>
+        <v>14406.458984375</v>
       </c>
       <c r="M3" s="9">
-        <v>1943.39</v>
+        <v>2126.84</v>
       </c>
       <c r="N3" s="9">
-        <v>15.04</v>
+        <v>14.76</v>
       </c>
       <c r="O3" s="9">
-        <v>664.97</v>
+        <v>677.36</v>
       </c>
       <c r="P3" s="9">
-        <v>289</v>
+        <v>322</v>
       </c>
       <c r="Q3" s="9">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="R3" s="9">
-        <v>302</v>
+        <v>337</v>
       </c>
       <c r="S3" s="9">
-        <v>12649.529296875</v>
+        <v>14093.939453125</v>
       </c>
       <c r="T3" s="9">
-        <v>273.36001586914063</v>
+        <v>312.52001953125</v>
       </c>
     </row>
     <row r="4" spans="1:20" ht="15.75" customHeight="1">
@@ -1129,7 +1135,7 @@
         <v>27</v>
       </c>
       <c r="G4" s="9">
-        <v>378</v>
+        <v>557</v>
       </c>
       <c r="H4" s="9">
         <v>0</v>
@@ -1191,31 +1197,31 @@
         <v>27</v>
       </c>
       <c r="G5" s="9">
-        <v>128968</v>
+        <v>143374</v>
       </c>
       <c r="H5" s="9">
-        <v>198</v>
+        <v>209</v>
       </c>
       <c r="I5" s="9">
-        <v>0.34</v>
+        <v>0.33</v>
       </c>
       <c r="J5" s="9">
         <v>0.15</v>
       </c>
       <c r="K5" s="9">
-        <v>1.01</v>
+        <v>0.96</v>
       </c>
       <c r="L5" s="9">
         <v>68.879997253417969</v>
       </c>
       <c r="M5" s="9">
-        <v>67.569999999999993</v>
+        <v>69.040000000000006</v>
       </c>
       <c r="N5" s="9">
-        <v>98.1</v>
+        <v>100.23</v>
       </c>
       <c r="O5" s="9">
-        <v>101.94</v>
+        <v>99.77</v>
       </c>
       <c r="P5" s="9">
         <v>2</v>
@@ -1253,43 +1259,43 @@
         <v>27</v>
       </c>
       <c r="G6" s="9">
-        <v>126323</v>
+        <v>134170</v>
       </c>
       <c r="H6" s="9">
-        <v>321</v>
+        <v>337</v>
       </c>
       <c r="I6" s="9">
-        <v>0.73</v>
+        <v>0.71</v>
       </c>
       <c r="J6" s="9">
         <v>0.25</v>
       </c>
       <c r="K6" s="9">
-        <v>15.58</v>
+        <v>15.13</v>
       </c>
       <c r="L6" s="9">
-        <v>1037.510009765625</v>
+        <v>1057.75</v>
       </c>
       <c r="M6" s="9">
-        <v>234.58</v>
+        <v>238.54</v>
       </c>
       <c r="N6" s="9">
-        <v>22.61</v>
+        <v>22.55</v>
       </c>
       <c r="O6" s="9">
-        <v>442.28</v>
+        <v>443.43</v>
       </c>
       <c r="P6" s="9">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="Q6" s="9">
         <v>5</v>
       </c>
       <c r="R6" s="9">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="S6" s="9">
-        <v>909.919921875</v>
+        <v>930.159912109375</v>
       </c>
       <c r="T6" s="9">
         <v>127.59000396728516</v>
@@ -1439,43 +1445,43 @@
         <v>27</v>
       </c>
       <c r="G9" s="9">
-        <v>21299</v>
+        <v>37352</v>
       </c>
       <c r="H9" s="9">
-        <v>55</v>
+        <v>90</v>
       </c>
       <c r="I9" s="9">
-        <v>1.33</v>
+        <v>1.1599999999999999</v>
       </c>
       <c r="J9" s="9">
-        <v>0.26</v>
+        <v>0.24</v>
       </c>
       <c r="K9" s="9">
-        <v>10.91</v>
+        <v>8.89</v>
       </c>
       <c r="L9" s="9">
-        <v>348.39999389648438</v>
+        <v>459.66000366210938</v>
       </c>
       <c r="M9" s="9">
-        <v>73</v>
+        <v>103.97</v>
       </c>
       <c r="N9" s="9">
-        <v>20.95</v>
+        <v>22.62</v>
       </c>
       <c r="O9" s="9">
-        <v>477.26</v>
+        <v>442.11</v>
       </c>
       <c r="P9" s="9">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="Q9" s="9">
         <v>1</v>
       </c>
       <c r="R9" s="9">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="S9" s="9">
-        <v>281.17001342773438</v>
+        <v>392.43002319335938</v>
       </c>
       <c r="T9" s="9">
         <v>67.230003356933594</v>
@@ -1501,31 +1507,31 @@
         <v>27</v>
       </c>
       <c r="G10" s="9">
-        <v>654</v>
+        <v>768</v>
       </c>
       <c r="H10" s="9">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="I10" s="9">
-        <v>1.26</v>
+        <v>1.23</v>
       </c>
       <c r="J10" s="9">
-        <v>2.4500000000000002</v>
+        <v>2.21</v>
       </c>
       <c r="K10" s="9">
-        <v>12.5</v>
+        <v>11.77</v>
       </c>
       <c r="L10" s="9">
         <v>111.26000213623047</v>
       </c>
       <c r="M10" s="9">
-        <v>20.22</v>
+        <v>20.86</v>
       </c>
       <c r="N10" s="9">
-        <v>18.170000000000002</v>
+        <v>18.75</v>
       </c>
       <c r="O10" s="9">
-        <v>550.25</v>
+        <v>533.37</v>
       </c>
       <c r="P10" s="9">
         <v>2</v>
@@ -1563,7 +1569,7 @@
         <v>27</v>
       </c>
       <c r="G11" s="9">
-        <v>117</v>
+        <v>170</v>
       </c>
       <c r="H11" s="9">
         <v>1</v>
@@ -1572,7 +1578,7 @@
         <v>1.7</v>
       </c>
       <c r="J11" s="9">
-        <v>0.85</v>
+        <v>0.59</v>
       </c>
       <c r="K11" s="9" t="s">
         <v>31</v>
@@ -1687,43 +1693,43 @@
         <v>27</v>
       </c>
       <c r="G13" s="9">
-        <v>161175</v>
+        <v>172772</v>
       </c>
       <c r="H13" s="9">
-        <v>447</v>
+        <v>470</v>
       </c>
       <c r="I13" s="9">
-        <v>1.04</v>
+        <v>1.01</v>
       </c>
       <c r="J13" s="9">
-        <v>0.28000000000000003</v>
+        <v>0.27</v>
       </c>
       <c r="K13" s="9">
-        <v>19.02</v>
+        <v>18.72</v>
       </c>
       <c r="L13" s="9">
-        <v>2139.919921875</v>
+        <v>2213.719970703125</v>
       </c>
       <c r="M13" s="9">
-        <v>466.45</v>
+        <v>473.91</v>
       </c>
       <c r="N13" s="9">
-        <v>21.8</v>
+        <v>21.41</v>
       </c>
       <c r="O13" s="9">
-        <v>458.77</v>
+        <v>467.12</v>
       </c>
       <c r="P13" s="9">
-        <v>64</v>
+        <v>67</v>
       </c>
       <c r="Q13" s="9">
         <v>21</v>
       </c>
       <c r="R13" s="9">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="S13" s="9">
-        <v>1574.39990234375</v>
+        <v>1648.1998291015625</v>
       </c>
       <c r="T13" s="9">
         <v>565.51995849609375</v>
@@ -1749,43 +1755,43 @@
         <v>27</v>
       </c>
       <c r="G14" s="9">
-        <v>210026</v>
+        <v>231033</v>
       </c>
       <c r="H14" s="9">
-        <v>804</v>
+        <v>905</v>
       </c>
       <c r="I14" s="9">
-        <v>1.49</v>
+        <v>1.47</v>
       </c>
       <c r="J14" s="9">
-        <v>0.38</v>
+        <v>0.39</v>
       </c>
       <c r="K14" s="9">
-        <v>10.94</v>
+        <v>10.5</v>
       </c>
       <c r="L14" s="9">
-        <v>7682.5595703125</v>
+        <v>8294.080078125</v>
       </c>
       <c r="M14" s="9">
-        <v>1201.93</v>
+        <v>1330.98</v>
       </c>
       <c r="N14" s="9">
-        <v>15.65</v>
+        <v>16.05</v>
       </c>
       <c r="O14" s="9">
-        <v>639.19000000000005</v>
+        <v>623.16</v>
       </c>
       <c r="P14" s="9">
-        <v>87</v>
+        <v>94</v>
       </c>
       <c r="Q14" s="9">
         <v>1</v>
       </c>
       <c r="R14" s="9">
-        <v>88</v>
+        <v>95</v>
       </c>
       <c r="S14" s="9">
-        <v>7652.7998046875</v>
+        <v>8264.3203125</v>
       </c>
       <c r="T14" s="9">
         <v>29.760000228881836</v>
@@ -2493,16 +2499,16 @@
         <v>27</v>
       </c>
       <c r="G26" s="9">
-        <v>0</v>
+        <v>1210</v>
       </c>
       <c r="H26" s="9">
-        <v>0</v>
-      </c>
-      <c r="I26" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J26" s="9" t="s">
-        <v>31</v>
+        <v>6</v>
+      </c>
+      <c r="I26" s="9">
+        <v>2.4300000000000002</v>
+      </c>
+      <c r="J26" s="9">
+        <v>0.5</v>
       </c>
       <c r="K26" s="9" t="s">
         <v>31</v>
@@ -2511,7 +2517,7 @@
         <v>0</v>
       </c>
       <c r="M26" s="9">
-        <v>0</v>
+        <v>14.61</v>
       </c>
       <c r="N26" s="9" t="s">
         <v>31</v>
@@ -2555,7 +2561,7 @@
         <v>27</v>
       </c>
       <c r="G27" s="9">
-        <v>0</v>
+        <v>89</v>
       </c>
       <c r="H27" s="9">
         <v>0</v>
@@ -2617,16 +2623,16 @@
         <v>27</v>
       </c>
       <c r="G28" s="9">
-        <v>0</v>
+        <v>804</v>
       </c>
       <c r="H28" s="9">
-        <v>0</v>
-      </c>
-      <c r="I28" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J28" s="9" t="s">
-        <v>31</v>
+        <v>4</v>
+      </c>
+      <c r="I28" s="9">
+        <v>2.5499999999999998</v>
+      </c>
+      <c r="J28" s="9">
+        <v>0.5</v>
       </c>
       <c r="K28" s="9" t="s">
         <v>31</v>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="M28" s="9">
-        <v>0</v>
+        <v>10.199999999999999</v>
       </c>
       <c r="N28" s="9" t="s">
         <v>31</v>
@@ -2679,46 +2685,46 @@
         <v>27</v>
       </c>
       <c r="G29" s="9">
-        <v>122955</v>
+        <v>138651</v>
       </c>
       <c r="H29" s="9">
-        <v>410</v>
+        <v>435</v>
       </c>
       <c r="I29" s="9">
-        <v>1.79</v>
+        <v>1.78</v>
       </c>
       <c r="J29" s="9">
-        <v>0.33</v>
+        <v>0.31</v>
       </c>
       <c r="K29" s="9">
-        <v>7.07</v>
+        <v>7.13</v>
       </c>
       <c r="L29" s="9">
-        <v>4133.4501953125</v>
+        <v>4340.02001953125</v>
       </c>
       <c r="M29" s="9">
-        <v>734.12</v>
+        <v>775.2</v>
       </c>
       <c r="N29" s="9">
-        <v>17.760000000000002</v>
+        <v>17.86</v>
       </c>
       <c r="O29" s="9">
-        <v>563.04999999999995</v>
+        <v>559.86</v>
       </c>
       <c r="P29" s="9">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="Q29" s="9">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="R29" s="9">
-        <v>29</v>
+        <v>31</v>
       </c>
       <c r="S29" s="9">
-        <v>3581.60009765625</v>
+        <v>3744.400146484375</v>
       </c>
       <c r="T29" s="9">
-        <v>551.8499755859375</v>
+        <v>595.6199951171875</v>
       </c>
     </row>
     <row r="30" spans="1:20" ht="15.75" customHeight="1">
@@ -3051,46 +3057,46 @@
         <v>27</v>
       </c>
       <c r="G35" s="9">
-        <v>0</v>
+        <v>598</v>
       </c>
       <c r="H35" s="9">
-        <v>0</v>
-      </c>
-      <c r="I35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K35" s="9" t="s">
-        <v>31</v>
+        <v>9</v>
+      </c>
+      <c r="I35" s="9">
+        <v>1.34</v>
+      </c>
+      <c r="J35" s="9">
+        <v>1.5</v>
+      </c>
+      <c r="K35" s="9">
+        <v>11.11</v>
       </c>
       <c r="L35" s="9">
-        <v>0</v>
+        <v>83.720001220703125</v>
       </c>
       <c r="M35" s="9">
-        <v>0</v>
-      </c>
-      <c r="N35" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O35" s="9" t="s">
-        <v>31</v>
+        <v>12.04</v>
+      </c>
+      <c r="N35" s="9">
+        <v>14.38</v>
+      </c>
+      <c r="O35" s="9">
+        <v>695.35</v>
       </c>
       <c r="P35" s="9">
         <v>0</v>
       </c>
       <c r="Q35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="R35" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S35" s="9">
         <v>0</v>
       </c>
       <c r="T35" s="9">
-        <v>0</v>
+        <v>83.720001220703125</v>
       </c>
     </row>
     <row r="36" spans="1:20" ht="15.75" customHeight="1">
@@ -3110,7 +3116,7 @@
         <v>106</v>
       </c>
       <c r="F36" s="8" t="s">
-        <v>27</v>
+        <v>78</v>
       </c>
       <c r="G36" s="9">
         <v>0</v>
@@ -3175,49 +3181,110 @@
         <v>27</v>
       </c>
       <c r="G37" s="9">
-        <v>0</v>
+        <v>431</v>
       </c>
       <c r="H37" s="9">
-        <v>0</v>
-      </c>
-      <c r="I37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="J37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="K37" s="9" t="s">
-        <v>31</v>
+        <v>8</v>
+      </c>
+      <c r="I37" s="9">
+        <v>1</v>
+      </c>
+      <c r="J37" s="9">
+        <v>1.86</v>
+      </c>
+      <c r="K37" s="9">
+        <v>12.5</v>
       </c>
       <c r="L37" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="M37" s="9">
-        <v>0</v>
-      </c>
-      <c r="N37" s="9" t="s">
-        <v>31</v>
-      </c>
-      <c r="O37" s="9" t="s">
-        <v>31</v>
+        <v>7.97</v>
+      </c>
+      <c r="N37" s="9">
+        <v>11.85</v>
+      </c>
+      <c r="O37" s="9">
+        <v>843.54</v>
       </c>
       <c r="P37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="Q37" s="9">
         <v>0</v>
       </c>
       <c r="R37" s="9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="S37" s="9">
-        <v>0</v>
+        <v>67.230003356933594</v>
       </c>
       <c r="T37" s="9">
         <v>0</v>
       </c>
     </row>
-    <row r="38" spans="1:20" ht="15.75" customHeight="1"/>
+    <row r="38" spans="1:20" ht="15.75" customHeight="1">
+      <c r="A38" s="7" t="s">
+        <v>22</v>
+      </c>
+      <c r="B38" s="7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C38" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="D38" s="7" t="s">
+        <v>109</v>
+      </c>
+      <c r="E38" s="7" t="s">
+        <v>110</v>
+      </c>
+      <c r="F38" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="G38" s="9">
+        <v>242</v>
+      </c>
+      <c r="H38" s="9">
+        <v>8</v>
+      </c>
+      <c r="I38" s="9">
+        <v>0.44</v>
+      </c>
+      <c r="J38" s="9">
+        <v>3.31</v>
+      </c>
+      <c r="K38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="L38" s="9">
+        <v>0</v>
+      </c>
+      <c r="M38" s="9">
+        <v>3.54</v>
+      </c>
+      <c r="N38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="O38" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="P38" s="9">
+        <v>0</v>
+      </c>
+      <c r="Q38" s="9">
+        <v>0</v>
+      </c>
+      <c r="R38" s="9">
+        <v>0</v>
+      </c>
+      <c r="S38" s="9">
+        <v>0</v>
+      </c>
+      <c r="T38" s="9">
+        <v>0</v>
+      </c>
+    </row>
     <row r="39" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="40" spans="1:20" ht="15.75" customHeight="1"/>
     <row r="41" spans="1:20" ht="15.75" customHeight="1"/>
